--- a/data/stranger_stats.xlsx
+++ b/data/stranger_stats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="34">
   <si>
     <t>Day</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
   <si>
     <t>Severity</t>
@@ -8389,24 +8392,24 @@
         <v>7</v>
       </c>
       <c r="B85" s="4">
-        <v>0.5222222222222223</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B86" s="4">
-        <v>0.5402777777777777</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -8414,111 +8417,111 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B87" s="4">
-        <v>0.5590277777777778</v>
+        <v>0.40625</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B88" s="4">
-        <v>0.5777777777777777</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B89" s="4">
-        <v>0.5958333333333333</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B90" s="4">
-        <v>0.6138888888888889</v>
+        <v>0.6736111111111112</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B91" s="4">
-        <v>0.6326388888888889</v>
+        <v>0.4756944444444444</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B92" s="4">
-        <v>0.6513888888888889</v>
+        <v>0.8368055555555556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" s="4">
-        <v>0.6701388888888888</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" s="4">
-        <v>0.6881944444444444</v>
+        <v>0.6631944444444444</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>8</v>
@@ -8529,10 +8532,10 @@
         <v>9</v>
       </c>
       <c r="B95" s="4">
-        <v>0.7069444444444445</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>5</v>
@@ -8540,41 +8543,41 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B96" s="4">
-        <v>0.725</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B97" s="4">
-        <v>0.74375</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B98" s="4">
-        <v>0.7625</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -8582,16 +8585,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" s="4">
-        <v>0.7805555555555556</v>
+        <v>0.8090277777777778</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -8654,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -8671,7 +8674,7 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -8688,7 +8691,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -8699,13 +8702,13 @@
         <v>0.5868055555555556</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>0.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -8722,7 +8725,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -8739,7 +8742,7 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -8750,13 +8753,13 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -8773,7 +8776,7 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -8790,7 +8793,7 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -8801,13 +8804,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -8824,7 +8827,7 @@
         <v>2.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -8841,7 +8844,7 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -8852,13 +8855,13 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>0.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -8875,7 +8878,7 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -8892,7 +8895,7 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -8903,13 +8906,13 @@
         <v>0.7951388888888888</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>0.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -8926,7 +8929,7 @@
         <v>2.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -8943,7 +8946,7 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -8954,13 +8957,13 @@
         <v>0.4097222222222222</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>0.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -8977,7 +8980,7 @@
         <v>3.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -8994,7 +8997,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -9005,13 +9008,13 @@
         <v>0.35625</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>0.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -9028,7 +9031,7 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -9045,7 +9048,7 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -9056,13 +9059,13 @@
         <v>0.33194444444444443</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
         <v>0.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -9079,7 +9082,7 @@
         <v>2.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -9096,7 +9099,7 @@
         <v>1.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -9107,13 +9110,13 @@
         <v>0.5513888888888889</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
         <v>0.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -9130,7 +9133,7 @@
         <v>3.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -9147,7 +9150,7 @@
         <v>1.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -9158,13 +9161,13 @@
         <v>0.9243055555555556</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
         <v>0.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -9181,7 +9184,7 @@
         <v>2.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -9198,7 +9201,7 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -9209,13 +9212,13 @@
         <v>0.3368055555555556</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>0.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -9232,7 +9235,7 @@
         <v>3.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -9249,7 +9252,7 @@
         <v>1.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -9260,13 +9263,13 @@
         <v>0.8458333333333333</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
         <v>0.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -9283,7 +9286,7 @@
         <v>2.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -9300,7 +9303,7 @@
         <v>1.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -9311,13 +9314,13 @@
         <v>0.39444444444444443</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>0.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -9334,7 +9337,7 @@
         <v>3.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -9351,7 +9354,7 @@
         <v>1.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -9362,13 +9365,13 @@
         <v>0.3638888888888889</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1">
         <v>0.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -9385,7 +9388,7 @@
         <v>2.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -9402,7 +9405,7 @@
         <v>1.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -9413,13 +9416,13 @@
         <v>0.30625</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
         <v>0.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -9436,7 +9439,7 @@
         <v>2.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -9453,7 +9456,7 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -9464,13 +9467,13 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
         <v>0.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -9487,7 +9490,7 @@
         <v>3.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -9504,7 +9507,7 @@
         <v>1.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -9515,13 +9518,13 @@
         <v>0.9354166666666667</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1">
         <v>0.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -9538,7 +9541,7 @@
         <v>2.0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
@@ -9555,7 +9558,7 @@
         <v>1.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -9566,13 +9569,13 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1">
         <v>0.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -9589,7 +9592,7 @@
         <v>3.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -9606,7 +9609,7 @@
         <v>1.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -9617,13 +9620,13 @@
         <v>0.8159722222222222</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1">
         <v>0.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -9640,7 +9643,7 @@
         <v>2.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -9657,7 +9660,7 @@
         <v>1.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -9668,13 +9671,13 @@
         <v>0.4076388888888889</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>0.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -9691,7 +9694,7 @@
         <v>3.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -9708,7 +9711,7 @@
         <v>1.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -9719,13 +9722,13 @@
         <v>0.3715277777777778</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="1">
         <v>0.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -9742,7 +9745,7 @@
         <v>2.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -9759,7 +9762,7 @@
         <v>1.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -9770,13 +9773,13 @@
         <v>0.31875</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="1">
         <v>0.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -9793,7 +9796,7 @@
         <v>2.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -9810,7 +9813,7 @@
         <v>1.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -9821,13 +9824,13 @@
         <v>0.55625</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="1">
         <v>0.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -9844,7 +9847,7 @@
         <v>3.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -9861,7 +9864,7 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -9872,13 +9875,13 @@
         <v>0.9472222222222222</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
         <v>0.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -9895,7 +9898,7 @@
         <v>2.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -9912,7 +9915,7 @@
         <v>1.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -9923,13 +9926,13 @@
         <v>0.3659722222222222</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" s="1">
         <v>0.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -9946,7 +9949,7 @@
         <v>3.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -9963,7 +9966,7 @@
         <v>1.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -9974,13 +9977,13 @@
         <v>0.8340277777777778</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="1">
         <v>0.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -9997,7 +10000,7 @@
         <v>2.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -10014,7 +10017,7 @@
         <v>1.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -10025,13 +10028,13 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="1">
         <v>0.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -10048,7 +10051,7 @@
         <v>3.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -10065,7 +10068,7 @@
         <v>1.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -10076,13 +10079,13 @@
         <v>0.3472222222222222</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="1">
         <v>0.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -10099,7 +10102,7 @@
         <v>2.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -10116,7 +10119,7 @@
         <v>1.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -10127,13 +10130,13 @@
         <v>0.29930555555555555</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="1">
         <v>0.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -10150,7 +10153,7 @@
         <v>2.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -10167,7 +10170,7 @@
         <v>1.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -10178,13 +10181,13 @@
         <v>0.5659722222222222</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="1">
         <v>0.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -10201,7 +10204,7 @@
         <v>3.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
@@ -10218,7 +10221,7 @@
         <v>1.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -10229,13 +10232,13 @@
         <v>0.9576388888888889</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="1">
         <v>0.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -10252,7 +10255,7 @@
         <v>2.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -10269,7 +10272,7 @@
         <v>1.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -10280,13 +10283,13 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="1">
         <v>0.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -10303,7 +10306,7 @@
         <v>3.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -10320,7 +10323,7 @@
         <v>1.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -10331,13 +10334,13 @@
         <v>0.8402777777777778</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" s="1">
         <v>0.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -10354,7 +10357,7 @@
         <v>2.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
